--- a/Others/Gantt_chart_0919.xlsx
+++ b/Others/Gantt_chart_0919.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeyh/Desktop/Capstone_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leeyh/Desktop/Capstone_1/KNUVI_Capstone_Project_2025-2/Others/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF16AA4-65E8-E44B-ABFA-1A7C221F8026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54C1C98-9013-C947-9C97-E31A6E0C8158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="960" windowWidth="33880" windowHeight="19880" xr2:uid="{7453B445-7095-4582-ACAE-BBB40EA0D2E1}"/>
   </bookViews>
@@ -926,7 +926,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{555426B7-1456-EB4E-B559-CF0009352ED3}" type="CELLRANGE">
+                    <a:fld id="{76800611-7F8D-BA4A-90D7-2E3951440F86}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -960,7 +960,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C63A2716-8D64-3C46-B034-417C737FC04A}" type="CELLRANGE">
+                    <a:fld id="{B5A8622F-F714-104D-88A3-21D4C38BCFD6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -994,7 +994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B9BD5C3-C57A-0F48-829F-DEBC9D60633D}" type="CELLRANGE">
+                    <a:fld id="{ED7D7067-9651-3B48-B78F-7BF5A609CE9B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1028,7 +1028,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DD06076-77A7-A749-B040-CF205528994A}" type="CELLRANGE">
+                    <a:fld id="{21192884-2A9C-E94B-B63F-CB220A6896D5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1062,7 +1062,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BC8D9185-3AD8-3F4F-B38A-1EF22FE271A3}" type="CELLRANGE">
+                    <a:fld id="{AFA22E99-B05E-634B-9DC2-C67CA1991BFF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1096,7 +1096,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A499F8A-0BE2-C04D-9CD9-38CBF970C65F}" type="CELLRANGE">
+                    <a:fld id="{5BEB31D4-1A8C-0148-B643-E833B7FB793C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1163,7 +1163,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF8C7972-B5EA-4B42-918C-D9F2D41F4575}" type="CELLRANGE">
+                    <a:fld id="{61F20E26-0A6C-234A-BCBC-67080E27C28E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1197,7 +1197,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC290C08-D1C4-F348-B37C-AFFE9996024F}" type="CELLRANGE">
+                    <a:fld id="{57998F52-75EA-384B-8D0C-45E6689B79E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1231,7 +1231,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CC12DAC-0515-1B49-A6AD-B79FDE329BBC}" type="CELLRANGE">
+                    <a:fld id="{454ED027-7097-4A46-AABF-1D07F0EC0650}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1262,40 +1262,6 @@
               <c:idx val="11"/>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EB982083-6569-B643-A909-29FE79CBA090}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inBase"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-5E80-604F-87BF-A81F2C47639D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:tx>
-                <c:rich>
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                     <a:spAutoFit/>
                   </a:bodyPr>
@@ -1313,7 +1279,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{E611BE91-F227-6F44-9108-921BB1563185}" type="CELLRANGE">
+                    <a:fld id="{4D5765D9-F9C6-8846-885C-288C4AD0AF25}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1800" b="1" i="1">
@@ -1372,12 +1338,12 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-5E80-604F-87BF-A81F2C47639D}"/>
+                  <c16:uniqueId val="{0000000D-5E80-604F-87BF-A81F2C47639D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="13"/>
+              <c:idx val="12"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1397,7 +1363,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{58584904-0902-504F-AA83-8BAFAC751BCC}" type="CELLRANGE">
+                    <a:fld id="{C0E3E3EF-C764-6544-AA5B-F24128A25D21}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1800" b="1" i="1">
@@ -1439,7 +1405,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ko-KR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="inBase"/>
@@ -1456,6 +1422,89 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-5E80-604F-87BF-A81F2C47639D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1800" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{D7EB616A-27F5-4C45-999E-CEF7F54CB738}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="ko-KR" i="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1800" b="1" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="accent6">
+                              <a:lumMod val="50000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1800" b="1" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-5E80-604F-87BF-A81F2C47639D}"/>
                 </c:ext>
               </c:extLst>
@@ -1467,7 +1516,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCB0FAEE-37D6-9045-9147-AF2F0E3772CF}" type="CELLRANGE">
+                    <a:fld id="{87B782C3-F457-3343-B348-C5A4DEB58DB9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3992,8 +4041,8 @@
   </sheetPr>
   <dimension ref="B1:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="64" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19.25" customHeight="1" outlineLevelCol="1"/>
